--- a/dataanalysis/data/predictions/1200/09221138_1139.xlsx
+++ b/dataanalysis/data/predictions/1200/09221138_1139.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="153">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-22</t>
   </si>
   <si>
@@ -470,12 +473,6 @@
   </si>
   <si>
     <t>是</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -833,13 +830,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH61"/>
+  <dimension ref="A1:AI61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -942,19 +939,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300007</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>0.21</v>
@@ -972,7 +972,7 @@
         <v>134483.61</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>10</v>
@@ -1014,10 +1014,25 @@
         <v>-0.15</v>
       </c>
       <c r="X2" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y2">
+        <v>2.23</v>
+      </c>
+      <c r="Z2">
+        <v>66.98</v>
+      </c>
+      <c r="AA2">
+        <v>6.27</v>
       </c>
       <c r="AC2" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1025,22 +1040,25 @@
       <c r="AG2">
         <v>-1.309572339057922</v>
       </c>
-      <c r="AH2" t="s">
-        <v>152</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300331</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-3.77</v>
@@ -1058,7 +1076,7 @@
         <v>116939.66</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K3">
         <v>12</v>
@@ -1100,10 +1118,25 @@
         <v>-0.95</v>
       </c>
       <c r="X3" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y3">
+        <v>-3.71</v>
+      </c>
+      <c r="Z3">
+        <v>38.56</v>
+      </c>
+      <c r="AA3">
+        <v>-0.72</v>
       </c>
       <c r="AC3" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1111,22 +1144,25 @@
       <c r="AG3">
         <v>2.585685729980469</v>
       </c>
-      <c r="AH3" t="s">
-        <v>152</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300433</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>7.15</v>
@@ -1144,7 +1180,7 @@
         <v>394365.62</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1186,10 +1222,25 @@
         <v>0.18</v>
       </c>
       <c r="X4" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y4">
+        <v>-2.9</v>
+      </c>
+      <c r="Z4">
+        <v>33.26</v>
+      </c>
+      <c r="AA4">
+        <v>1.74</v>
       </c>
       <c r="AC4" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1197,22 +1248,25 @@
       <c r="AG4">
         <v>-7.537458419799805</v>
       </c>
-      <c r="AH4" t="s">
-        <v>152</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300435</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>0.05</v>
@@ -1230,7 +1284,7 @@
         <v>20941.03</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -1271,8 +1325,23 @@
       <c r="W5">
         <v>-0.15</v>
       </c>
+      <c r="Y5">
+        <v>4.8</v>
+      </c>
+      <c r="Z5">
+        <v>21.09</v>
+      </c>
+      <c r="AA5">
+        <v>4.82</v>
+      </c>
       <c r="AC5" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1280,22 +1349,25 @@
       <c r="AG5">
         <v>4.721889495849609</v>
       </c>
-      <c r="AH5" t="s">
-        <v>152</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300450</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>3.6</v>
@@ -1313,7 +1385,7 @@
         <v>557024.26</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>17</v>
@@ -1355,10 +1427,25 @@
         <v>-0.06</v>
       </c>
       <c r="X6" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y6">
+        <v>7.49</v>
+      </c>
+      <c r="Z6">
+        <v>64.8</v>
+      </c>
+      <c r="AA6">
+        <v>12.5</v>
       </c>
       <c r="AC6" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1366,22 +1453,25 @@
       <c r="AG6">
         <v>38.84477233886719</v>
       </c>
-      <c r="AH6" t="s">
-        <v>152</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300457</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.2</v>
@@ -1399,7 +1489,7 @@
         <v>78652.10000000001</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>15</v>
@@ -1441,10 +1531,25 @@
         <v>-0.09</v>
       </c>
       <c r="X7" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y7">
+        <v>4.08</v>
+      </c>
+      <c r="Z7">
+        <v>35.88</v>
+      </c>
+      <c r="AA7">
+        <v>5.81</v>
       </c>
       <c r="AC7" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1452,22 +1557,25 @@
       <c r="AG7">
         <v>1.783183932304382</v>
       </c>
-      <c r="AH7" t="s">
-        <v>152</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300469</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>-4.09</v>
@@ -1485,7 +1593,7 @@
         <v>96218.67999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8">
         <v>23</v>
@@ -1527,10 +1635,25 @@
         <v>-0.44</v>
       </c>
       <c r="X8" t="s">
-        <v>131</v>
+        <v>132</v>
+      </c>
+      <c r="Y8">
+        <v>-0.29</v>
+      </c>
+      <c r="Z8">
+        <v>89.7</v>
+      </c>
+      <c r="AA8">
+        <v>7.99</v>
       </c>
       <c r="AC8" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1538,22 +1661,25 @@
       <c r="AG8">
         <v>-4.458125591278076</v>
       </c>
-      <c r="AH8" t="s">
-        <v>152</v>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300475</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>5.56</v>
@@ -1571,7 +1697,7 @@
         <v>304700.49</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K9">
         <v>12</v>
@@ -1613,10 +1739,25 @@
         <v>0.16</v>
       </c>
       <c r="X9" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y9">
+        <v>-4.92</v>
+      </c>
+      <c r="Z9">
+        <v>87.98999999999999</v>
+      </c>
+      <c r="AA9">
+        <v>7.51</v>
       </c>
       <c r="AC9" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1624,22 +1765,25 @@
       <c r="AG9">
         <v>9.526103973388672</v>
       </c>
-      <c r="AH9" t="s">
-        <v>152</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300499</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>5.63</v>
@@ -1657,7 +1801,7 @@
         <v>122003.8</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10">
         <v>5</v>
@@ -1699,10 +1843,25 @@
         <v>0.16</v>
       </c>
       <c r="X10" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y10">
+        <v>-1.27</v>
+      </c>
+      <c r="Z10">
+        <v>36.19</v>
+      </c>
+      <c r="AA10">
+        <v>7.13</v>
       </c>
       <c r="AC10" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1710,22 +1869,25 @@
       <c r="AG10">
         <v>5.450355529785156</v>
       </c>
-      <c r="AH10" t="s">
-        <v>152</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300507</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-0.49</v>
@@ -1743,7 +1905,7 @@
         <v>64447.9</v>
       </c>
       <c r="J11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1785,10 +1947,25 @@
         <v>-0.72</v>
       </c>
       <c r="X11" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y11">
+        <v>0.6</v>
+      </c>
+      <c r="Z11">
+        <v>10.28</v>
+      </c>
+      <c r="AA11">
+        <v>1.18</v>
       </c>
       <c r="AC11" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1796,22 +1973,25 @@
       <c r="AG11">
         <v>1.896331906318665</v>
       </c>
-      <c r="AH11" t="s">
-        <v>152</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300521</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>6.38</v>
@@ -1829,7 +2009,7 @@
         <v>37490.72</v>
       </c>
       <c r="J12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1871,10 +2051,25 @@
         <v>0.32</v>
       </c>
       <c r="X12" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y12">
+        <v>-3.98</v>
+      </c>
+      <c r="Z12">
+        <v>33.81</v>
+      </c>
+      <c r="AA12">
+        <v>0.33</v>
       </c>
       <c r="AC12" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1882,22 +2077,25 @@
       <c r="AG12">
         <v>4.645790100097656</v>
       </c>
-      <c r="AH12" t="s">
-        <v>152</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300539</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>20</v>
@@ -1915,7 +2113,7 @@
         <v>106226.54</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K13">
         <v>12</v>
@@ -1957,10 +2155,25 @@
         <v>1.35</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y13">
+        <v>1.34</v>
+      </c>
+      <c r="Z13">
+        <v>52.89</v>
+      </c>
+      <c r="AA13">
+        <v>9.1</v>
       </c>
       <c r="AC13" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1968,22 +2181,25 @@
       <c r="AG13">
         <v>9.529424667358398</v>
       </c>
-      <c r="AH13" t="s">
-        <v>152</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>300602</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>2.53</v>
@@ -2001,7 +2217,7 @@
         <v>111453.63</v>
       </c>
       <c r="J14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2043,10 +2259,25 @@
         <v>0.41</v>
       </c>
       <c r="X14" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y14">
+        <v>-2.95</v>
+      </c>
+      <c r="Z14">
+        <v>35.88</v>
+      </c>
+      <c r="AA14">
+        <v>3.07</v>
       </c>
       <c r="AC14" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2054,22 +2285,25 @@
       <c r="AG14">
         <v>0.1727569699287415</v>
       </c>
-      <c r="AH14" t="s">
-        <v>152</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>300604</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>3.63</v>
@@ -2087,7 +2321,7 @@
         <v>166845.36</v>
       </c>
       <c r="J15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K15">
         <v>19</v>
@@ -2129,10 +2363,25 @@
         <v>0.28</v>
       </c>
       <c r="X15" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y15">
+        <v>20</v>
+      </c>
+      <c r="Z15">
+        <v>80.27</v>
+      </c>
+      <c r="AA15">
+        <v>21.05</v>
       </c>
       <c r="AC15" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2140,22 +2389,25 @@
       <c r="AG15">
         <v>6.958590984344482</v>
       </c>
-      <c r="AH15" t="s">
-        <v>152</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>300620</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>12.49</v>
@@ -2173,7 +2425,7 @@
         <v>395017.83</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16">
         <v>9</v>
@@ -2215,10 +2467,25 @@
         <v>0.43</v>
       </c>
       <c r="X16" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y16">
+        <v>-1.85</v>
+      </c>
+      <c r="Z16">
+        <v>140.6</v>
+      </c>
+      <c r="AA16">
+        <v>-0.28</v>
       </c>
       <c r="AC16" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
       </c>
       <c r="AF16">
         <v>1</v>
@@ -2226,22 +2493,25 @@
       <c r="AG16">
         <v>10.72190093994141</v>
       </c>
-      <c r="AH16" t="s">
-        <v>153</v>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>300680</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>0.89</v>
@@ -2259,7 +2529,7 @@
         <v>60120.44</v>
       </c>
       <c r="J17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17">
         <v>8</v>
@@ -2301,10 +2571,25 @@
         <v>-0.1</v>
       </c>
       <c r="X17" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y17">
+        <v>6.93</v>
+      </c>
+      <c r="Z17">
+        <v>64.2</v>
+      </c>
+      <c r="AA17">
+        <v>6.4</v>
       </c>
       <c r="AC17" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2312,22 +2597,25 @@
       <c r="AG17">
         <v>5.09868860244751</v>
       </c>
-      <c r="AH17" t="s">
-        <v>152</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>300684</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>2.74</v>
@@ -2345,7 +2633,7 @@
         <v>91111.56</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K18">
         <v>5</v>
@@ -2387,10 +2675,25 @@
         <v>0.7</v>
       </c>
       <c r="X18" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y18">
+        <v>-4.84</v>
+      </c>
+      <c r="Z18">
+        <v>45.5</v>
+      </c>
+      <c r="AA18">
+        <v>1.93</v>
       </c>
       <c r="AC18" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2398,22 +2701,25 @@
       <c r="AG18">
         <v>2.406422853469849</v>
       </c>
-      <c r="AH18" t="s">
-        <v>152</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>300806</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>4.11</v>
@@ -2431,7 +2737,7 @@
         <v>47788.56</v>
       </c>
       <c r="J19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K19">
         <v>7</v>
@@ -2473,10 +2779,25 @@
         <v>0.08</v>
       </c>
       <c r="X19" t="s">
-        <v>137</v>
+        <v>138</v>
+      </c>
+      <c r="Y19">
+        <v>-3.07</v>
+      </c>
+      <c r="Z19">
+        <v>27.87</v>
+      </c>
+      <c r="AA19">
+        <v>2.92</v>
       </c>
       <c r="AC19" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2484,22 +2805,25 @@
       <c r="AG19">
         <v>4.313636779785156</v>
       </c>
-      <c r="AH19" t="s">
-        <v>152</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>300814</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-0.85</v>
@@ -2517,7 +2841,7 @@
         <v>46812.12</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K20">
         <v>5</v>
@@ -2559,10 +2883,25 @@
         <v>-0.01</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y20">
+        <v>-0.67</v>
+      </c>
+      <c r="Z20">
+        <v>58.5</v>
+      </c>
+      <c r="AA20">
+        <v>13.46</v>
       </c>
       <c r="AC20" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>1</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2570,22 +2909,25 @@
       <c r="AG20">
         <v>4.905871391296387</v>
       </c>
-      <c r="AH20" t="s">
-        <v>152</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>300843</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>6.16</v>
@@ -2603,7 +2945,7 @@
         <v>63367.63</v>
       </c>
       <c r="J21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -2645,10 +2987,25 @@
         <v>0.15</v>
       </c>
       <c r="X21" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="Y21">
+        <v>-6.78</v>
+      </c>
+      <c r="Z21">
+        <v>61.98</v>
+      </c>
+      <c r="AA21">
+        <v>0.98</v>
       </c>
       <c r="AC21" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2656,22 +3013,25 @@
       <c r="AG21">
         <v>-0.1604611128568649</v>
       </c>
-      <c r="AH21" t="s">
-        <v>152</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>300857</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>6.53</v>
@@ -2689,7 +3049,7 @@
         <v>286060.95</v>
       </c>
       <c r="J22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K22">
         <v>22</v>
@@ -2731,10 +3091,25 @@
         <v>0.15</v>
       </c>
       <c r="X22" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y22">
+        <v>-3.46</v>
+      </c>
+      <c r="Z22">
+        <v>179.59</v>
+      </c>
+      <c r="AA22">
+        <v>3.15</v>
       </c>
       <c r="AC22" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2742,22 +3117,25 @@
       <c r="AG22">
         <v>3.180387258529663</v>
       </c>
-      <c r="AH22" t="s">
-        <v>152</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>300859</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-3.53</v>
@@ -2775,7 +3153,7 @@
         <v>78768.64999999999</v>
       </c>
       <c r="J23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K23">
         <v>10</v>
@@ -2817,10 +3195,25 @@
         <v>-0.58</v>
       </c>
       <c r="X23" t="s">
-        <v>139</v>
+        <v>140</v>
+      </c>
+      <c r="Y23">
+        <v>-7.81</v>
+      </c>
+      <c r="Z23">
+        <v>54.5</v>
+      </c>
+      <c r="AA23">
+        <v>-0.87</v>
       </c>
       <c r="AC23" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2828,22 +3221,25 @@
       <c r="AG23">
         <v>2.375141859054565</v>
       </c>
-      <c r="AH23" t="s">
-        <v>152</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>300959</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>10.77</v>
@@ -2861,7 +3257,7 @@
         <v>96354.75</v>
       </c>
       <c r="J24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -2903,10 +3299,25 @@
         <v>0.95</v>
       </c>
       <c r="X24" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="Y24">
+        <v>-0.75</v>
+      </c>
+      <c r="Z24">
+        <v>82.19</v>
+      </c>
+      <c r="AA24">
+        <v>2.96</v>
       </c>
       <c r="AC24" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2914,22 +3325,25 @@
       <c r="AG24">
         <v>4.00654125213623</v>
       </c>
-      <c r="AH24" t="s">
-        <v>152</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>300969</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>3.92</v>
@@ -2947,7 +3361,7 @@
         <v>36486.56</v>
       </c>
       <c r="J25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -2989,10 +3403,25 @@
         <v>0.65</v>
       </c>
       <c r="X25" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y25">
+        <v>15.26</v>
+      </c>
+      <c r="Z25">
+        <v>143.7</v>
+      </c>
+      <c r="AA25">
+        <v>20.24</v>
       </c>
       <c r="AC25" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3000,22 +3429,25 @@
       <c r="AG25">
         <v>-1.681062340736389</v>
       </c>
-      <c r="AH25" t="s">
-        <v>152</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>300984</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1.84</v>
@@ -3033,7 +3465,7 @@
         <v>23314.84</v>
       </c>
       <c r="J26" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -3075,10 +3507,25 @@
         <v>0</v>
       </c>
       <c r="X26" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="Y26">
+        <v>-1.48</v>
+      </c>
+      <c r="Z26">
+        <v>78.72</v>
+      </c>
+      <c r="AA26">
+        <v>3.16</v>
       </c>
       <c r="AC26" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3086,22 +3533,25 @@
       <c r="AG26">
         <v>4.4919753074646</v>
       </c>
-      <c r="AH26" t="s">
-        <v>152</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>301008</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>4.56</v>
@@ -3119,7 +3569,7 @@
         <v>65909.31</v>
       </c>
       <c r="J27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3161,10 +3611,25 @@
         <v>0.76</v>
       </c>
       <c r="X27" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y27">
+        <v>8.16</v>
+      </c>
+      <c r="Z27">
+        <v>55.05</v>
+      </c>
+      <c r="AA27">
+        <v>22.44</v>
       </c>
       <c r="AC27" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -3172,22 +3637,25 @@
       <c r="AG27">
         <v>1.610244631767273</v>
       </c>
-      <c r="AH27" t="s">
-        <v>152</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>301013</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>13.19</v>
@@ -3205,7 +3673,7 @@
         <v>193995.24</v>
       </c>
       <c r="J28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3247,10 +3715,25 @@
         <v>-0.84</v>
       </c>
       <c r="X28" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y28">
+        <v>-2.89</v>
+      </c>
+      <c r="Z28">
+        <v>30.88</v>
+      </c>
+      <c r="AA28">
+        <v>2.52</v>
       </c>
       <c r="AC28" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -3258,22 +3741,25 @@
       <c r="AG28">
         <v>-1.26403546333313</v>
       </c>
-      <c r="AH28" t="s">
-        <v>152</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34">
+    <row r="29" spans="1:35">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29">
         <v>301018</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>6.87</v>
@@ -3291,7 +3777,7 @@
         <v>76574.55</v>
       </c>
       <c r="J29" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K29">
         <v>5</v>
@@ -3333,10 +3819,25 @@
         <v>0.29</v>
       </c>
       <c r="X29" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y29">
+        <v>-5.3</v>
+      </c>
+      <c r="Z29">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="AA29">
+        <v>3.18</v>
       </c>
       <c r="AC29" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3344,22 +3845,25 @@
       <c r="AG29">
         <v>3.102242469787598</v>
       </c>
-      <c r="AH29" t="s">
-        <v>152</v>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34">
+    <row r="30" spans="1:35">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>301150</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E30">
         <v>3.57</v>
@@ -3377,7 +3881,7 @@
         <v>82792.56</v>
       </c>
       <c r="J30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K30">
         <v>15</v>
@@ -3419,10 +3923,25 @@
         <v>-0.31</v>
       </c>
       <c r="X30" t="s">
-        <v>109</v>
+        <v>110</v>
+      </c>
+      <c r="Y30">
+        <v>-4.05</v>
+      </c>
+      <c r="Z30">
+        <v>44</v>
+      </c>
+      <c r="AA30">
+        <v>1.15</v>
       </c>
       <c r="AC30" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3430,22 +3949,25 @@
       <c r="AG30">
         <v>-12.1399974822998</v>
       </c>
-      <c r="AH30" t="s">
-        <v>152</v>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34">
+    <row r="31" spans="1:35">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31">
         <v>301183</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E31">
         <v>-2.57</v>
@@ -3463,7 +3985,7 @@
         <v>66613.86</v>
       </c>
       <c r="J31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K31">
         <v>8</v>
@@ -3505,10 +4027,25 @@
         <v>-0.4</v>
       </c>
       <c r="X31" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="Y31">
+        <v>-7.03</v>
+      </c>
+      <c r="Z31">
+        <v>113.5</v>
+      </c>
+      <c r="AA31">
+        <v>5.82</v>
       </c>
       <c r="AC31" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3516,22 +4053,25 @@
       <c r="AG31">
         <v>-2.728654623031616</v>
       </c>
-      <c r="AH31" t="s">
-        <v>152</v>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34">
+    <row r="32" spans="1:35">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32">
         <v>301307</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32">
         <v>0.35</v>
@@ -3549,7 +4089,7 @@
         <v>38064.25</v>
       </c>
       <c r="J32" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K32">
         <v>9</v>
@@ -3591,10 +4131,25 @@
         <v>-0.29</v>
       </c>
       <c r="X32" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y32">
+        <v>0.28</v>
+      </c>
+      <c r="Z32">
+        <v>41.86</v>
+      </c>
+      <c r="AA32">
+        <v>4.18</v>
       </c>
       <c r="AC32" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3602,22 +4157,25 @@
       <c r="AG32">
         <v>0.9239859580993652</v>
       </c>
-      <c r="AH32" t="s">
-        <v>152</v>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34">
+    <row r="33" spans="1:35">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>301308</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33">
         <v>9.869999999999999</v>
@@ -3635,7 +4193,7 @@
         <v>286755.74</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K33">
         <v>2</v>
@@ -3677,10 +4235,25 @@
         <v>0.53</v>
       </c>
       <c r="X33" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y33">
+        <v>2.56</v>
+      </c>
+      <c r="Z33">
+        <v>144.67</v>
+      </c>
+      <c r="AA33">
+        <v>2.91</v>
       </c>
       <c r="AC33" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3688,22 +4261,25 @@
       <c r="AG33">
         <v>-6.277188777923584</v>
       </c>
-      <c r="AH33" t="s">
-        <v>152</v>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34">
+    <row r="34" spans="1:35">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>301389</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34">
         <v>1.5</v>
@@ -3721,7 +4297,7 @@
         <v>77272.78</v>
       </c>
       <c r="J34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K34">
         <v>5</v>
@@ -3763,10 +4339,25 @@
         <v>0.32</v>
       </c>
       <c r="X34" t="s">
-        <v>143</v>
+        <v>144</v>
+      </c>
+      <c r="Y34">
+        <v>-2.13</v>
+      </c>
+      <c r="Z34">
+        <v>78.58</v>
+      </c>
+      <c r="AA34">
+        <v>3.91</v>
       </c>
       <c r="AC34" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3774,22 +4365,25 @@
       <c r="AG34">
         <v>0.1043204143643379</v>
       </c>
-      <c r="AH34" t="s">
-        <v>152</v>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34">
+    <row r="35" spans="1:35">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>301413</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35">
         <v>3.44</v>
@@ -3807,7 +4401,7 @@
         <v>68785.42999999999</v>
       </c>
       <c r="J35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K35">
         <v>22</v>
@@ -3849,10 +4443,25 @@
         <v>0.1</v>
       </c>
       <c r="X35" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y35">
+        <v>-2.85</v>
+      </c>
+      <c r="Z35">
+        <v>177.5</v>
+      </c>
+      <c r="AA35">
+        <v>0.35</v>
       </c>
       <c r="AC35" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3860,22 +4469,25 @@
       <c r="AG35">
         <v>2.138960361480713</v>
       </c>
-      <c r="AH35" t="s">
-        <v>152</v>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34">
+    <row r="36" spans="1:35">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36">
         <v>301488</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36">
         <v>1.1</v>
@@ -3893,7 +4505,7 @@
         <v>70848.07000000001</v>
       </c>
       <c r="J36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K36">
         <v>19</v>
@@ -3935,10 +4547,25 @@
         <v>0.48</v>
       </c>
       <c r="X36" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y36">
+        <v>4.38</v>
+      </c>
+      <c r="Z36">
+        <v>194.52</v>
+      </c>
+      <c r="AA36">
+        <v>4.52</v>
       </c>
       <c r="AC36" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD36">
+        <v>0</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3946,22 +4573,25 @@
       <c r="AG36">
         <v>4.067230224609375</v>
       </c>
-      <c r="AH36" t="s">
-        <v>152</v>
+      <c r="AH36">
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34">
+    <row r="37" spans="1:35">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C37">
         <v>301489</v>
       </c>
       <c r="D37" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>10.01</v>
@@ -3979,7 +4609,7 @@
         <v>74408.03999999999</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K37">
         <v>10</v>
@@ -4021,10 +4651,25 @@
         <v>0.21</v>
       </c>
       <c r="X37" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="Y37">
+        <v>0.15</v>
+      </c>
+      <c r="Z37">
+        <v>291.88</v>
+      </c>
+      <c r="AA37">
+        <v>10.64</v>
       </c>
       <c r="AC37" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD37">
+        <v>0</v>
+      </c>
+      <c r="AE37">
+        <v>1</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -4032,22 +4677,25 @@
       <c r="AG37">
         <v>-7.577409744262695</v>
       </c>
-      <c r="AH37" t="s">
-        <v>152</v>
+      <c r="AH37">
+        <v>0</v>
+      </c>
+      <c r="AI37">
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:34">
+    <row r="38" spans="1:35">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>301550</v>
       </c>
       <c r="D38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E38">
         <v>8.17</v>
@@ -4065,7 +4713,7 @@
         <v>73112.13</v>
       </c>
       <c r="J38" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K38">
         <v>4</v>
@@ -4107,10 +4755,25 @@
         <v>0.04</v>
       </c>
       <c r="X38" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y38">
+        <v>1.49</v>
+      </c>
+      <c r="Z38">
+        <v>135.5</v>
+      </c>
+      <c r="AA38">
+        <v>3.61</v>
       </c>
       <c r="AC38" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD38">
+        <v>0</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -4118,22 +4781,25 @@
       <c r="AG38">
         <v>7.126245498657227</v>
       </c>
-      <c r="AH38" t="s">
-        <v>152</v>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34">
+    <row r="39" spans="1:35">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39">
         <v>301600</v>
       </c>
       <c r="D39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E39">
         <v>1.64</v>
@@ -4151,7 +4817,7 @@
         <v>21907.28</v>
       </c>
       <c r="J39" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K39">
         <v>5</v>
@@ -4193,10 +4859,25 @@
         <v>0.45</v>
       </c>
       <c r="X39" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="Y39">
+        <v>-2.24</v>
+      </c>
+      <c r="Z39">
+        <v>146</v>
+      </c>
+      <c r="AA39">
+        <v>-0.17</v>
       </c>
       <c r="AC39" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD39">
+        <v>0</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4204,22 +4885,25 @@
       <c r="AG39">
         <v>5.907173156738281</v>
       </c>
-      <c r="AH39" t="s">
-        <v>152</v>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34">
+    <row r="40" spans="1:35">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>688028</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40">
         <v>9.15</v>
@@ -4237,7 +4921,7 @@
         <v>55066.88</v>
       </c>
       <c r="J40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K40">
         <v>11</v>
@@ -4279,10 +4963,25 @@
         <v>-0.72</v>
       </c>
       <c r="X40" t="s">
-        <v>127</v>
+        <v>128</v>
+      </c>
+      <c r="Y40">
+        <v>-3.37</v>
+      </c>
+      <c r="Z40">
+        <v>51.83</v>
+      </c>
+      <c r="AA40">
+        <v>5.99</v>
       </c>
       <c r="AC40" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD40">
+        <v>0</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4290,22 +4989,25 @@
       <c r="AG40">
         <v>2.996620893478394</v>
       </c>
-      <c r="AH40" t="s">
-        <v>152</v>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34">
+    <row r="41" spans="1:35">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>688041</v>
       </c>
       <c r="D41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E41">
         <v>3.96</v>
@@ -4323,7 +5025,7 @@
         <v>837044.99</v>
       </c>
       <c r="J41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4365,10 +5067,25 @@
         <v>0.08</v>
       </c>
       <c r="X41" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y41">
+        <v>-2.51</v>
+      </c>
+      <c r="Z41">
+        <v>264.88</v>
+      </c>
+      <c r="AA41">
+        <v>7.98</v>
       </c>
       <c r="AC41" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -4376,22 +5093,25 @@
       <c r="AG41">
         <v>-5.43130350112915</v>
       </c>
-      <c r="AH41" t="s">
-        <v>152</v>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:34">
+    <row r="42" spans="1:35">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>688062</v>
       </c>
       <c r="D42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E42">
         <v>6.17</v>
@@ -4409,7 +5129,7 @@
         <v>93036.05</v>
       </c>
       <c r="J42" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K42">
         <v>3</v>
@@ -4451,10 +5171,25 @@
         <v>0.39</v>
       </c>
       <c r="X42" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="Y42">
+        <v>-7.62</v>
+      </c>
+      <c r="Z42">
+        <v>54.35</v>
+      </c>
+      <c r="AA42">
+        <v>-0.66</v>
       </c>
       <c r="AC42" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42">
+        <v>0</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -4462,22 +5197,25 @@
       <c r="AG42">
         <v>2.841981887817383</v>
       </c>
-      <c r="AH42" t="s">
-        <v>152</v>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34">
+    <row r="43" spans="1:35">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>688110</v>
       </c>
       <c r="D43" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43">
         <v>8.25</v>
@@ -4495,7 +5233,7 @@
         <v>298933.53</v>
       </c>
       <c r="J43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -4537,10 +5275,25 @@
         <v>0.27</v>
       </c>
       <c r="X43" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y43">
+        <v>-5.64</v>
+      </c>
+      <c r="Z43">
+        <v>123.38</v>
+      </c>
+      <c r="AA43">
+        <v>2.05</v>
       </c>
       <c r="AC43" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD43">
+        <v>0</v>
+      </c>
+      <c r="AE43">
+        <v>0</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -4548,22 +5301,25 @@
       <c r="AG43">
         <v>-1.50136125087738</v>
       </c>
-      <c r="AH43" t="s">
-        <v>152</v>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34">
+    <row r="44" spans="1:35">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>688135</v>
       </c>
       <c r="D44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>3.85</v>
@@ -4581,7 +5337,7 @@
         <v>54245.25</v>
       </c>
       <c r="J44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K44">
         <v>15</v>
@@ -4623,10 +5379,25 @@
         <v>0.1</v>
       </c>
       <c r="X44" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y44">
+        <v>8.07</v>
+      </c>
+      <c r="Z44">
+        <v>38.9</v>
+      </c>
+      <c r="AA44">
+        <v>11.81</v>
       </c>
       <c r="AC44" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD44">
+        <v>0</v>
+      </c>
+      <c r="AE44">
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -4634,22 +5405,25 @@
       <c r="AG44">
         <v>2.567754745483398</v>
       </c>
-      <c r="AH44" t="s">
-        <v>152</v>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:34">
+    <row r="45" spans="1:35">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>688167</v>
       </c>
       <c r="D45" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E45">
         <v>-2.77</v>
@@ -4667,7 +5441,7 @@
         <v>113055.19</v>
       </c>
       <c r="J45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K45">
         <v>12</v>
@@ -4709,10 +5483,25 @@
         <v>-0.39</v>
       </c>
       <c r="X45" t="s">
-        <v>128</v>
+        <v>129</v>
+      </c>
+      <c r="Y45">
+        <v>-0.83</v>
+      </c>
+      <c r="Z45">
+        <v>176.55</v>
+      </c>
+      <c r="AA45">
+        <v>3.25</v>
       </c>
       <c r="AC45" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD45">
+        <v>0</v>
+      </c>
+      <c r="AE45">
+        <v>0</v>
       </c>
       <c r="AF45">
         <v>1</v>
@@ -4720,22 +5509,25 @@
       <c r="AG45">
         <v>26.23669242858887</v>
       </c>
-      <c r="AH45" t="s">
-        <v>152</v>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34">
+    <row r="46" spans="1:35">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>688195</v>
       </c>
       <c r="D46" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E46">
         <v>4.7</v>
@@ -4753,7 +5545,7 @@
         <v>152184.49</v>
       </c>
       <c r="J46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K46">
         <v>26</v>
@@ -4795,10 +5587,25 @@
         <v>-0.06</v>
       </c>
       <c r="X46" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y46">
+        <v>0.7</v>
+      </c>
+      <c r="Z46">
+        <v>145.46</v>
+      </c>
+      <c r="AA46">
+        <v>5.14</v>
       </c>
       <c r="AC46" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD46">
+        <v>0</v>
+      </c>
+      <c r="AE46">
+        <v>0</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -4806,22 +5613,25 @@
       <c r="AG46">
         <v>10.5321216583252</v>
       </c>
-      <c r="AH46" t="s">
-        <v>152</v>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34">
+    <row r="47" spans="1:35">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47">
         <v>688205</v>
       </c>
       <c r="D47" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -4839,7 +5649,7 @@
         <v>187207.63</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K47">
         <v>4</v>
@@ -4881,10 +5691,25 @@
         <v>-0.5</v>
       </c>
       <c r="X47" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="Y47">
+        <v>-10.14</v>
+      </c>
+      <c r="Z47">
+        <v>151.35</v>
+      </c>
+      <c r="AA47">
+        <v>-1.72</v>
       </c>
       <c r="AC47" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD47">
+        <v>0</v>
+      </c>
+      <c r="AE47">
+        <v>0</v>
       </c>
       <c r="AF47">
         <v>1</v>
@@ -4892,22 +5717,25 @@
       <c r="AG47">
         <v>27.02329444885254</v>
       </c>
-      <c r="AH47" t="s">
-        <v>152</v>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34">
+    <row r="48" spans="1:35">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48">
         <v>688228</v>
       </c>
       <c r="D48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E48">
         <v>12.53</v>
@@ -4925,7 +5753,7 @@
         <v>91884.06</v>
       </c>
       <c r="J48" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K48">
         <v>9</v>
@@ -4967,10 +5795,25 @@
         <v>-0.01</v>
       </c>
       <c r="X48" t="s">
-        <v>146</v>
+        <v>147</v>
+      </c>
+      <c r="Y48">
+        <v>-12.29</v>
+      </c>
+      <c r="Z48">
+        <v>207</v>
+      </c>
+      <c r="AA48">
+        <v>-1.53</v>
       </c>
       <c r="AC48" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD48">
+        <v>0</v>
+      </c>
+      <c r="AE48">
+        <v>0</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -4978,22 +5821,25 @@
       <c r="AG48">
         <v>13.006667137146</v>
       </c>
-      <c r="AH48" t="s">
-        <v>152</v>
+      <c r="AH48">
+        <v>0</v>
+      </c>
+      <c r="AI48">
+        <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34">
+    <row r="49" spans="1:35">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C49">
         <v>688306</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49">
         <v>3.92</v>
@@ -5011,7 +5857,7 @@
         <v>47077.17</v>
       </c>
       <c r="J49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K49">
         <v>3</v>
@@ -5053,10 +5899,25 @@
         <v>0</v>
       </c>
       <c r="X49" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="Y49">
+        <v>-3.84</v>
+      </c>
+      <c r="Z49">
+        <v>14.33</v>
+      </c>
+      <c r="AA49">
+        <v>1.99</v>
       </c>
       <c r="AC49" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD49">
+        <v>0</v>
+      </c>
+      <c r="AE49">
+        <v>0</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -5064,22 +5925,25 @@
       <c r="AG49">
         <v>-0.1779322773218155</v>
       </c>
-      <c r="AH49" t="s">
-        <v>152</v>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+      <c r="AI49">
+        <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34">
+    <row r="50" spans="1:35">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C50">
         <v>688339</v>
       </c>
       <c r="D50" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>11.18</v>
@@ -5097,7 +5961,7 @@
         <v>51528.35</v>
       </c>
       <c r="J50" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -5139,10 +6003,25 @@
         <v>0.44</v>
       </c>
       <c r="X50" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y50">
+        <v>-1.59</v>
+      </c>
+      <c r="Z50">
+        <v>29.38</v>
+      </c>
+      <c r="AA50">
+        <v>1.84</v>
       </c>
       <c r="AC50" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD50">
+        <v>0</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -5150,22 +6029,25 @@
       <c r="AG50">
         <v>6.09257984161377</v>
       </c>
-      <c r="AH50" t="s">
-        <v>152</v>
+      <c r="AH50">
+        <v>0</v>
+      </c>
+      <c r="AI50">
+        <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34">
+    <row r="51" spans="1:35">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C51">
         <v>688400</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E51">
         <v>4.2</v>
@@ -5183,7 +6065,7 @@
         <v>147224.65</v>
       </c>
       <c r="J51" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K51">
         <v>8</v>
@@ -5224,8 +6106,23 @@
       <c r="W51">
         <v>0.08</v>
       </c>
+      <c r="Y51">
+        <v>-2.54</v>
+      </c>
+      <c r="Z51">
+        <v>54.47</v>
+      </c>
+      <c r="AA51">
+        <v>3.05</v>
+      </c>
       <c r="AC51" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD51">
+        <v>0</v>
+      </c>
+      <c r="AE51">
+        <v>0</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -5233,22 +6130,25 @@
       <c r="AG51">
         <v>4.558287620544434</v>
       </c>
-      <c r="AH51" t="s">
-        <v>152</v>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+      <c r="AI51">
+        <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34">
+    <row r="52" spans="1:35">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C52">
         <v>688411</v>
       </c>
       <c r="D52" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E52">
         <v>-0.6</v>
@@ -5266,7 +6166,7 @@
         <v>24952.38</v>
       </c>
       <c r="J52" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K52">
         <v>15</v>
@@ -5308,10 +6208,25 @@
         <v>-0.36</v>
       </c>
       <c r="X52" t="s">
-        <v>130</v>
+        <v>131</v>
+      </c>
+      <c r="Y52">
+        <v>18.59</v>
+      </c>
+      <c r="Z52">
+        <v>259.5</v>
+      </c>
+      <c r="AA52">
+        <v>29.24</v>
       </c>
       <c r="AC52" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>1</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -5319,22 +6234,25 @@
       <c r="AG52">
         <v>4.065347671508789</v>
       </c>
-      <c r="AH52" t="s">
-        <v>152</v>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34">
+    <row r="53" spans="1:35">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C53">
         <v>688498</v>
       </c>
       <c r="D53" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E53">
         <v>-1.78</v>
@@ -5352,7 +6270,7 @@
         <v>135388.34</v>
       </c>
       <c r="J53" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K53">
         <v>9</v>
@@ -5394,10 +6312,25 @@
         <v>-0.3</v>
       </c>
       <c r="X53" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="Y53">
+        <v>-0.74</v>
+      </c>
+      <c r="Z53">
+        <v>415.28</v>
+      </c>
+      <c r="AA53">
+        <v>6.23</v>
       </c>
       <c r="AC53" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD53">
+        <v>0</v>
+      </c>
+      <c r="AE53">
+        <v>0</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -5405,22 +6338,25 @@
       <c r="AG53">
         <v>0.9834327101707458</v>
       </c>
-      <c r="AH53" t="s">
-        <v>152</v>
+      <c r="AH53">
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34">
+    <row r="54" spans="1:35">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C54">
         <v>688521</v>
       </c>
       <c r="D54" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E54">
         <v>18.82</v>
@@ -5438,7 +6374,7 @@
         <v>669667.53</v>
       </c>
       <c r="J54" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K54">
         <v>14</v>
@@ -5480,10 +6416,25 @@
         <v>0.68</v>
       </c>
       <c r="X54" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y54">
+        <v>1.48</v>
+      </c>
+      <c r="Z54">
+        <v>207.6</v>
+      </c>
+      <c r="AA54">
+        <v>1</v>
       </c>
       <c r="AC54" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD54">
+        <v>0</v>
+      </c>
+      <c r="AE54">
+        <v>0</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -5491,22 +6442,25 @@
       <c r="AG54">
         <v>4.326394081115723</v>
       </c>
-      <c r="AH54" t="s">
-        <v>152</v>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+      <c r="AI54">
+        <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34">
+    <row r="55" spans="1:35">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C55">
         <v>688525</v>
       </c>
       <c r="D55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E55">
         <v>6.51</v>
@@ -5524,7 +6478,7 @@
         <v>234514.1</v>
       </c>
       <c r="J55" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -5566,10 +6520,25 @@
         <v>0.03</v>
       </c>
       <c r="X55" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="Y55">
+        <v>3.57</v>
+      </c>
+      <c r="Z55">
+        <v>89.95999999999999</v>
+      </c>
+      <c r="AA55">
+        <v>5.61</v>
       </c>
       <c r="AC55" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD55">
+        <v>0</v>
+      </c>
+      <c r="AE55">
+        <v>0</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -5577,22 +6546,25 @@
       <c r="AG55">
         <v>-9.649993896484375</v>
       </c>
-      <c r="AH55" t="s">
-        <v>152</v>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+      <c r="AI55">
+        <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34">
+    <row r="56" spans="1:35">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C56">
         <v>688593</v>
       </c>
       <c r="D56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E56">
         <v>-7.95</v>
@@ -5610,7 +6582,7 @@
         <v>46058.17</v>
       </c>
       <c r="J56" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K56">
         <v>4</v>
@@ -5652,10 +6624,25 @@
         <v>-1.1</v>
       </c>
       <c r="X56" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y56">
+        <v>-0.09</v>
+      </c>
+      <c r="Z56">
+        <v>23.44</v>
+      </c>
+      <c r="AA56">
+        <v>0.17</v>
       </c>
       <c r="AC56" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD56">
+        <v>0</v>
+      </c>
+      <c r="AE56">
+        <v>0</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -5663,22 +6650,25 @@
       <c r="AG56">
         <v>5.514195919036865</v>
       </c>
-      <c r="AH56" t="s">
-        <v>152</v>
+      <c r="AH56">
+        <v>0</v>
+      </c>
+      <c r="AI56">
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34">
+    <row r="57" spans="1:35">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C57">
         <v>688627</v>
       </c>
       <c r="D57" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E57">
         <v>4.22</v>
@@ -5696,7 +6686,7 @@
         <v>43686.28</v>
       </c>
       <c r="J57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K57">
         <v>7</v>
@@ -5738,10 +6728,25 @@
         <v>0.2</v>
       </c>
       <c r="X57" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y57">
+        <v>16.97</v>
+      </c>
+      <c r="Z57">
+        <v>183.6</v>
+      </c>
+      <c r="AA57">
+        <v>19.83</v>
       </c>
       <c r="AC57" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57">
+        <v>1</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -5749,22 +6754,25 @@
       <c r="AG57">
         <v>3.606393098831177</v>
       </c>
-      <c r="AH57" t="s">
-        <v>152</v>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+      <c r="AI57">
+        <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:34">
+    <row r="58" spans="1:35">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C58">
         <v>688629</v>
       </c>
       <c r="D58" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58">
         <v>1.57</v>
@@ -5782,7 +6790,7 @@
         <v>185193.08</v>
       </c>
       <c r="J58" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K58">
         <v>8</v>
@@ -5824,10 +6832,25 @@
         <v>-0.33</v>
       </c>
       <c r="X58" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="Y58">
+        <v>-3.62</v>
+      </c>
+      <c r="Z58">
+        <v>108.98</v>
+      </c>
+      <c r="AA58">
+        <v>2.23</v>
       </c>
       <c r="AC58" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD58">
+        <v>0</v>
+      </c>
+      <c r="AE58">
+        <v>0</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -5835,22 +6858,25 @@
       <c r="AG58">
         <v>10.66766548156738</v>
       </c>
-      <c r="AH58" t="s">
-        <v>152</v>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+      <c r="AI58">
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34">
+    <row r="59" spans="1:35">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C59">
         <v>688678</v>
       </c>
       <c r="D59" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E59">
         <v>10.15</v>
@@ -5868,7 +6894,7 @@
         <v>54764.77</v>
       </c>
       <c r="J59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K59">
         <v>3</v>
@@ -5910,10 +6936,25 @@
         <v>0.36</v>
       </c>
       <c r="X59" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="Y59">
+        <v>1.78</v>
+      </c>
+      <c r="Z59">
+        <v>37.39</v>
+      </c>
+      <c r="AA59">
+        <v>4.41</v>
       </c>
       <c r="AC59" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD59">
+        <v>0</v>
+      </c>
+      <c r="AE59">
+        <v>0</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -5921,22 +6962,25 @@
       <c r="AG59">
         <v>0.7359362840652466</v>
       </c>
-      <c r="AH59" t="s">
-        <v>152</v>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+      <c r="AI59">
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34">
+    <row r="60" spans="1:35">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C60">
         <v>688766</v>
       </c>
       <c r="D60" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E60">
         <v>4.81</v>
@@ -5954,7 +6998,7 @@
         <v>112988.88</v>
       </c>
       <c r="J60" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K60">
         <v>5</v>
@@ -5996,10 +7040,25 @@
         <v>0.78</v>
       </c>
       <c r="X60" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y60">
+        <v>-2.05</v>
+      </c>
+      <c r="Z60">
+        <v>110.3</v>
+      </c>
+      <c r="AA60">
+        <v>-0.24</v>
       </c>
       <c r="AC60" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="AD60">
+        <v>0</v>
+      </c>
+      <c r="AE60">
+        <v>0</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -6007,22 +7066,25 @@
       <c r="AG60">
         <v>-0.5969030261039734</v>
       </c>
-      <c r="AH60" t="s">
-        <v>152</v>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+      <c r="AI60">
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34">
+    <row r="61" spans="1:35">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61">
         <v>688981</v>
       </c>
       <c r="D61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61">
         <v>1.01</v>
@@ -6040,7 +7102,7 @@
         <v>891224.17</v>
       </c>
       <c r="J61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K61">
         <v>8</v>
@@ -6082,10 +7144,25 @@
         <v>-0.14</v>
       </c>
       <c r="X61" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="Y61">
+        <v>-0.32</v>
+      </c>
+      <c r="Z61">
+        <v>129.33</v>
+      </c>
+      <c r="AA61">
+        <v>5.52</v>
       </c>
       <c r="AC61" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="AD61">
+        <v>0</v>
+      </c>
+      <c r="AE61">
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6093,8 +7170,11 @@
       <c r="AG61">
         <v>-1.517897129058838</v>
       </c>
-      <c r="AH61" t="s">
-        <v>152</v>
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
